--- a/articulo 1 XAI/data_valencia_comunity/Resultados salida/2_metrics_NN.xlsx
+++ b/articulo 1 XAI/data_valencia_comunity/Resultados salida/2_metrics_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/data_valencia_comunity/Resultados salida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_C2CE23B4C647914E41C39D5F060A53129275BA64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFA966F-2AA3-43FC-9874-DCAB9968524E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_C2CE23B46C6F521A6980945F060A53129275BA7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E70BFE-65D9-4547-B9EB-A2A1C196CD82}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="870" windowWidth="21600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,13 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -441,22 +442,22 @@
         <v>0.81707317073170704</v>
       </c>
       <c r="B2" s="1">
-        <v>0.972067039106145</v>
+        <v>0.977653631284916</v>
       </c>
       <c r="C2" s="1">
-        <v>0.93055555555555602</v>
+        <v>0.94366197183098599</v>
       </c>
       <c r="D2" s="1">
-        <v>0.92063492063492103</v>
+        <v>0.92105263157894701</v>
       </c>
       <c r="E2" s="1">
-        <v>0.93055555555555602</v>
+        <v>0.94366197183098599</v>
       </c>
       <c r="F2" s="1">
         <v>0.81707317073170704</v>
       </c>
       <c r="G2" s="1">
-        <v>0.87012987012986998</v>
+        <v>0.87581699346405195</v>
       </c>
       <c r="H2" s="1">
         <v>0.31417624521072801</v>
@@ -465,10 +466,10 @@
         <v>0.25670498084291199</v>
       </c>
       <c r="J2" s="1">
-        <v>0.27586206896551702</v>
+        <v>0.27203065134099602</v>
       </c>
       <c r="K2" s="1">
-        <v>0.89457010491892597</v>
+        <v>0.89736340100831202</v>
       </c>
     </row>
   </sheetData>
